--- a/data/hotels_by_city/Houston/Houston_shard_143.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_143.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="213">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d12525394-Reviews-Courtyard_Houston_Intercontinental_Airport-Houston_Texas.html</t>
   </si>
   <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>223</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Courtyard-By-Marriott-Houston-Intercontinental-Airport.h19716268.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,523 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/08/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12525394-r600940460-Courtyard_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>12525394</t>
+  </si>
+  <si>
+    <t>600940460</t>
+  </si>
+  <si>
+    <t>07/29/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great hotel </t>
+  </si>
+  <si>
+    <t>We had a layover in Houston from Cabo San Lucas . Unfortunately, the flight got cancelled do to bad weather in New York . Doing some research and reading the reviews, I choose this hotel. Very accurate reviews! The hotel is so clean and new. The employees were excellent. Room very nice, with large tv. The only thing I would change are the pillows. Too soft. The best perk is the free shuttle too and from the airport that is so convenient . We would def stay in this hotel again. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>TeamConcord, Manager at Courtyard Houston Intercontinental Airport, responded to this reviewResponded 1 week ago</t>
+  </si>
+  <si>
+    <t>Responded 1 week ago</t>
+  </si>
+  <si>
+    <t>We had a layover in Houston from Cabo San Lucas . Unfortunately, the flight got cancelled do to bad weather in New York . Doing some research and reading the reviews, I choose this hotel. Very accurate reviews! The hotel is so clean and new. The employees were excellent. Room very nice, with large tv. The only thing I would change are the pillows. Too soft. The best perk is the free shuttle too and from the airport that is so convenient . We would def stay in this hotel again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12525394-r594171290-Courtyard_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>594171290</t>
+  </si>
+  <si>
+    <t>07/08/2018</t>
+  </si>
+  <si>
+    <t>New and Modern</t>
+  </si>
+  <si>
+    <t>I enjoyed my stay at this hotel especially because it is very close to the airport. The staff is friendly and professional. The rooms are clean and spacious and brand new! They also have a laundry facility that was very convenient during my stay. I did have s</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12525394-r593456119-Courtyard_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>593456119</t>
+  </si>
+  <si>
+    <t>07/06/2018</t>
+  </si>
+  <si>
+    <t>Fantastic staff good room nice to stay here</t>
+  </si>
+  <si>
+    <t>Location is very good about 30 minutes to Midtown and 10 to the airport. Rooms are very good bathroom is huge and very clean, water temperature is also good on high floors. Everybody in the hotel is very friendly in a genuine way, it is not the standard trained welcome chatter etc. but they mean it. Special thanks to the reception guys and Sarah and Paige in the bar they make you feel at home.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>TeamConcord, Manager at Courtyard Houston Intercontinental Airport, responded to this reviewResponded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Location is very good about 30 minutes to Midtown and 10 to the airport. Rooms are very good bathroom is huge and very clean, water temperature is also good on high floors. Everybody in the hotel is very friendly in a genuine way, it is not the standard trained welcome chatter etc. but they mean it. Special thanks to the reception guys and Sarah and Paige in the bar they make you feel at home.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12525394-r589853039-Courtyard_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>589853039</t>
+  </si>
+  <si>
+    <t>06/22/2018</t>
+  </si>
+  <si>
+    <t>Exceptional Service and Accomodations</t>
+  </si>
+  <si>
+    <t>Every single individual who interacted with me at this hotel took the time to get to know me by name. I work in Hospitality and the attention to the guest experience exceeds my expectations. Special kudos to the Bistro Bar team: Sarah and Paige treated me like family. Tray from the front desk helped me each day. The awesome young man who’s birthday it was, and who’s name escapes me, was so genuinely warm and friendly even at 4am!! Thank you, Courtyard IAH!MoreShow less</t>
+  </si>
+  <si>
+    <t>TeamConcord, Manager at Courtyard Houston Intercontinental Airport, responded to this reviewResponded June 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 23, 2018</t>
+  </si>
+  <si>
+    <t>Every single individual who interacted with me at this hotel took the time to get to know me by name. I work in Hospitality and the attention to the guest experience exceeds my expectations. Special kudos to the Bistro Bar team: Sarah and Paige treated me like family. Tray from the front desk helped me each day. The awesome young man who’s birthday it was, and who’s name escapes me, was so genuinely warm and friendly even at 4am!! Thank you, Courtyard IAH!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12525394-r589324706-Courtyard_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>589324706</t>
+  </si>
+  <si>
+    <t>06/20/2018</t>
+  </si>
+  <si>
+    <t>Hotel goes Above and Beyond</t>
+  </si>
+  <si>
+    <t>I recently stayed at this courtyard and had car trouble with a dead battery.  When I told the Hotel Manager my problem, he brought me to a Firestone Store to buy a new battery and asked the Maintenance Technician help me install it.  They were very courteous and made a bad day into a Great Day!!!!!!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12525394-r586996704-Courtyard_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>586996704</t>
+  </si>
+  <si>
+    <t>06/12/2018</t>
+  </si>
+  <si>
+    <t>Nice hotel but with some faults</t>
+  </si>
+  <si>
+    <t>Stayed here for 2 nights for business.  It’s right near the airport which is both a plus and a con.Pros:Friendly staffNice gym with pull up bar and up to 50lb dumbbellsPurified water bottle filling stationClean, comfortable roomSnack bar for purchase offered, along with Starbucks café  Reliable WIFIVery short drive to airport – about 10 minutes to and from.Cons:You can hear airplanes flying overhead.  Bring earplugs if you are a light sleeperFood options in area are not great.  You’ll need to drive about 20 minutes north or southVery small fridge – hardly anything can fit in there, and no freezer compartment.  Would’ve liked more space.Although the hotel is conveniently close to the airport, I wouldn’t recommend a business stay here if you need to drive to downtown.  It is about 1 hour away.  All the good food options are a bit of a drive too.I would have to think  twice about staying here again because the fridge was just too small, but everything else about the stay was nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>TeamConcord, Manager at Courtyard Houston Intercontinental Airport, responded to this reviewResponded June 13, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 13, 2018</t>
+  </si>
+  <si>
+    <t>Stayed here for 2 nights for business.  It’s right near the airport which is both a plus and a con.Pros:Friendly staffNice gym with pull up bar and up to 50lb dumbbellsPurified water bottle filling stationClean, comfortable roomSnack bar for purchase offered, along with Starbucks café  Reliable WIFIVery short drive to airport – about 10 minutes to and from.Cons:You can hear airplanes flying overhead.  Bring earplugs if you are a light sleeperFood options in area are not great.  You’ll need to drive about 20 minutes north or southVery small fridge – hardly anything can fit in there, and no freezer compartment.  Would’ve liked more space.Although the hotel is conveniently close to the airport, I wouldn’t recommend a business stay here if you need to drive to downtown.  It is about 1 hour away.  All the good food options are a bit of a drive too.I would have to think  twice about staying here again because the fridge was just too small, but everything else about the stay was nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12525394-r584068950-Courtyard_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>584068950</t>
+  </si>
+  <si>
+    <t>05/31/2018</t>
+  </si>
+  <si>
+    <t>Business Travel/Openings IAH</t>
+  </si>
+  <si>
+    <t>As a brand new hotel, all spaces were very clean and in good repair. The rooms are clean and comfortable and housekeeping was efficient. The gym, laundry and other amenities were fine and accessible.Most of the staff were very attentive and helpful. I would especially like to mention Dre, at the front desk, Sarah B. and Paige, from The Bistro. They were friendly, helpful and very professional. Sarah would greet each guest by their name, was a wonderful conversationalist while also tending bar and executing food orders, all with a smile on her face. Sarah is a true joy and an amazing asset to your team. Dre also greeted each guest by name and always asked if there was anything he could do to make the stay better.The only negatives were one unfortunate evening with bad service (Sarah and Paige's day off) and not being able to set the AC below 65.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>TeamConcord, Manager at Courtyard Houston Intercontinental Airport, responded to this reviewResponded May 31, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 31, 2018</t>
+  </si>
+  <si>
+    <t>As a brand new hotel, all spaces were very clean and in good repair. The rooms are clean and comfortable and housekeeping was efficient. The gym, laundry and other amenities were fine and accessible.Most of the staff were very attentive and helpful. I would especially like to mention Dre, at the front desk, Sarah B. and Paige, from The Bistro. They were friendly, helpful and very professional. Sarah would greet each guest by their name, was a wonderful conversationalist while also tending bar and executing food orders, all with a smile on her face. Sarah is a true joy and an amazing asset to your team. Dre also greeted each guest by name and always asked if there was anything he could do to make the stay better.The only negatives were one unfortunate evening with bad service (Sarah and Paige's day off) and not being able to set the AC below 65.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12525394-r582463828-Courtyard_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>582463828</t>
+  </si>
+  <si>
+    <t>05/24/2018</t>
+  </si>
+  <si>
+    <t>Convenient</t>
+  </si>
+  <si>
+    <t>Hotel is very convenient to the Houston International Airport and the shuttle service worked well.  Not very many good restaurants close by the hotel that did not require a long drive.  Rooms was clean and would certainly consider this hotel again if I was in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>TeamConcord, Manager at Courtyard Houston Intercontinental Airport, responded to this reviewResponded May 25, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 25, 2018</t>
+  </si>
+  <si>
+    <t>Hotel is very convenient to the Houston International Airport and the shuttle service worked well.  Not very many good restaurants close by the hotel that did not require a long drive.  Rooms was clean and would certainly consider this hotel again if I was in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12525394-r580691563-Courtyard_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>580691563</t>
+  </si>
+  <si>
+    <t>05/16/2018</t>
+  </si>
+  <si>
+    <t>Prepared for a winning presentation</t>
+  </si>
+  <si>
+    <t>Over the course of two days, our team stayed at the Courtyard and we rented a conference room to prepare for a presentation to a local client. The staff at he Courtyard was beyond helpful. They showed us how to use the projector screen, connect to the Wi-Fi, and print quick agendas. We had lunch catered from Panera and the staff at Courtyard helped us coordinate the delivery. In addition, we had a courier drop off the presentation boards to the hotel, which the front desk intercepted for us. They let us know when the courier arrived, and directed each new arrival from our team tot he conference room. The hotel itself is nothing exciting, but it was a great place to crash after a long day of preparation for our oral interview and Q&amp;A. Many thanks to the Courtyard staff for going above and beyond as we delivered a winning presentation!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>TeamConcord, Manager at Courtyard Houston Intercontinental Airport, responded to this reviewResponded May 17, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 17, 2018</t>
+  </si>
+  <si>
+    <t>Over the course of two days, our team stayed at the Courtyard and we rented a conference room to prepare for a presentation to a local client. The staff at he Courtyard was beyond helpful. They showed us how to use the projector screen, connect to the Wi-Fi, and print quick agendas. We had lunch catered from Panera and the staff at Courtyard helped us coordinate the delivery. In addition, we had a courier drop off the presentation boards to the hotel, which the front desk intercepted for us. They let us know when the courier arrived, and directed each new arrival from our team tot he conference room. The hotel itself is nothing exciting, but it was a great place to crash after a long day of preparation for our oral interview and Q&amp;A. Many thanks to the Courtyard staff for going above and beyond as we delivered a winning presentation!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12525394-r574162878-Courtyard_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>574162878</t>
+  </si>
+  <si>
+    <t>04/18/2018</t>
+  </si>
+  <si>
+    <t>Weekly Stay at this Property</t>
+  </si>
+  <si>
+    <t>One word TRAYVON! I am Platinum with Marriott and stay at this property every week. I have been staying here since they opened the property a year ago. From the first time I checked in on my first visit TRAYVON has just amazed me with his positive outlook and his friendly and professional demeanor. The best part is I work with public and I feel beat up most of the time but when I enter the Marriott Courtyard TRAYVON is there to greet me with a smile and a good laugh and he makes ME feel like a valued customer. He greets me everytime by name which he knew by my second visit. One night we had bad weather in Houston and he actualy saw me outside in the parking lot running to the entrance. By the time I got there there was a line but he greeted me at the door with my room key and said " I saw you in the parking lot and everything is ready for you and I knew you would be tired and ready to go to your room".  WOW!! That's what I call real customer service. Marriott is very lucky to have TRAYVON representing their brand! And I hope he sees this post as he will not recognize the name I use here but will surely remember who I am. In addition, this Courtyard is very nice and very clean and it...One word TRAYVON! I am Platinum with Marriott and stay at this property every week. I have been staying here since they opened the property a year ago. From the first time I checked in on my first visit TRAYVON has just amazed me with his positive outlook and his friendly and professional demeanor. The best part is I work with public and I feel beat up most of the time but when I enter the Marriott Courtyard TRAYVON is there to greet me with a smile and a good laugh and he makes ME feel like a valued customer. He greets me everytime by name which he knew by my second visit. One night we had bad weather in Houston and he actualy saw me outside in the parking lot running to the entrance. By the time I got there there was a line but he greeted me at the door with my room key and said " I saw you in the parking lot and everything is ready for you and I knew you would be tired and ready to go to your room".  WOW!! That's what I call real customer service. Marriott is very lucky to have TRAYVON representing their brand! And I hope he sees this post as he will not recognize the name I use here but will surely remember who I am. In addition, this Courtyard is very nice and very clean and it is a failry new hotel. I love the large bathroom and glass shower and even though it is at the airport it is quiet except for the airplanes coming and going which are no bother to me. The Bistro in my opinion is a little pricey but overall if you are hungry and you are there on a stopover it is a little healthier than taco bell or jack in the box down the street. I do have other options in hotels. There are several Marriott properties around the hotel area and of course there is the Marriott right at the Airport. But to tell you the truth I feel at home at the Courtyard because of TRAYVON! So as long as he is there Courtyard will be my choice!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>TeamConcord, Manager at Courtyard Houston Intercontinental Airport, responded to this reviewResponded April 18, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 18, 2018</t>
+  </si>
+  <si>
+    <t>One word TRAYVON! I am Platinum with Marriott and stay at this property every week. I have been staying here since they opened the property a year ago. From the first time I checked in on my first visit TRAYVON has just amazed me with his positive outlook and his friendly and professional demeanor. The best part is I work with public and I feel beat up most of the time but when I enter the Marriott Courtyard TRAYVON is there to greet me with a smile and a good laugh and he makes ME feel like a valued customer. He greets me everytime by name which he knew by my second visit. One night we had bad weather in Houston and he actualy saw me outside in the parking lot running to the entrance. By the time I got there there was a line but he greeted me at the door with my room key and said " I saw you in the parking lot and everything is ready for you and I knew you would be tired and ready to go to your room".  WOW!! That's what I call real customer service. Marriott is very lucky to have TRAYVON representing their brand! And I hope he sees this post as he will not recognize the name I use here but will surely remember who I am. In addition, this Courtyard is very nice and very clean and it...One word TRAYVON! I am Platinum with Marriott and stay at this property every week. I have been staying here since they opened the property a year ago. From the first time I checked in on my first visit TRAYVON has just amazed me with his positive outlook and his friendly and professional demeanor. The best part is I work with public and I feel beat up most of the time but when I enter the Marriott Courtyard TRAYVON is there to greet me with a smile and a good laugh and he makes ME feel like a valued customer. He greets me everytime by name which he knew by my second visit. One night we had bad weather in Houston and he actualy saw me outside in the parking lot running to the entrance. By the time I got there there was a line but he greeted me at the door with my room key and said " I saw you in the parking lot and everything is ready for you and I knew you would be tired and ready to go to your room".  WOW!! That's what I call real customer service. Marriott is very lucky to have TRAYVON representing their brand! And I hope he sees this post as he will not recognize the name I use here but will surely remember who I am. In addition, this Courtyard is very nice and very clean and it is a failry new hotel. I love the large bathroom and glass shower and even though it is at the airport it is quiet except for the airplanes coming and going which are no bother to me. The Bistro in my opinion is a little pricey but overall if you are hungry and you are there on a stopover it is a little healthier than taco bell or jack in the box down the street. I do have other options in hotels. There are several Marriott properties around the hotel area and of course there is the Marriott right at the Airport. But to tell you the truth I feel at home at the Courtyard because of TRAYVON! So as long as he is there Courtyard will be my choice!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12525394-r571880449-Courtyard_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>571880449</t>
+  </si>
+  <si>
+    <t>04/08/2018</t>
+  </si>
+  <si>
+    <t>Clean and worth the stay</t>
+  </si>
+  <si>
+    <t>Location was great related to the IAH airport.  Shuttle service was efficient.  Rooms were clean and spacious as were the bathrooms.  Staff was friendly.  Only issue is that the hotel did not have its own pool and was shared with the Springhill suites across the parking lot.  Would stay again though.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>TeamConcord, Manager at Courtyard Houston Intercontinental Airport, responded to this reviewResponded April 8, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 8, 2018</t>
+  </si>
+  <si>
+    <t>Location was great related to the IAH airport.  Shuttle service was efficient.  Rooms were clean and spacious as were the bathrooms.  Staff was friendly.  Only issue is that the hotel did not have its own pool and was shared with the Springhill suites across the parking lot.  Would stay again though.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12525394-r564412047-Courtyard_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>564412047</t>
+  </si>
+  <si>
+    <t>03/04/2018</t>
+  </si>
+  <si>
+    <t>Typical Courtyard</t>
+  </si>
+  <si>
+    <t>Marriott do a good job with their brand and style of hotel. This Courtyard is no exception.Checkin via mobile app - nice and easy.Room very comfortable and large. Issue with mine was it was an adjoining room - and that means you can hear the neigbours.Bathroom - large clean and tidy - good amenities. Walk in shower (no tub) with just a fixed shower head.Bed comfortable and big. Plenty of power outlets. TV is internet based so you can login to your Netflix/TV account and watch what you like.Food the usual Courtyard - basic but tasty - burgers etc.All in all a nice stay. Wrong room for me which meant I could hear my neighbours so didn't sleep as soundly as I wanted.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>TeamConcord, Manager at Courtyard Houston Intercontinental Airport, responded to this reviewResponded March 5, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 5, 2018</t>
+  </si>
+  <si>
+    <t>Marriott do a good job with their brand and style of hotel. This Courtyard is no exception.Checkin via mobile app - nice and easy.Room very comfortable and large. Issue with mine was it was an adjoining room - and that means you can hear the neigbours.Bathroom - large clean and tidy - good amenities. Walk in shower (no tub) with just a fixed shower head.Bed comfortable and big. Plenty of power outlets. TV is internet based so you can login to your Netflix/TV account and watch what you like.Food the usual Courtyard - basic but tasty - burgers etc.All in all a nice stay. Wrong room for me which meant I could hear my neighbours so didn't sleep as soundly as I wanted.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12525394-r562646481-Courtyard_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>562646481</t>
+  </si>
+  <si>
+    <t>02/25/2018</t>
+  </si>
+  <si>
+    <t>Airport shuttle took 1 hour to arrive, did not get room we paid for, rudest manager ever encountered</t>
+  </si>
+  <si>
+    <t>This hotel offers a free airport shuttle, but I’ve never had such a bad experience with this service at a hotel. Guests are expected to call the hotel when they arrive to schedule a pick-up. Once we called, we were told the van would take 20 minutes tops to arrive. We waited for an hour. By the time the shuttle got to our location so many guests were waiting that a couple had to be left behind (after being guaranteed a pick-up over phone and waiting for an hour!)
+Now on to the hotel itself... I booked a DOUBLE room for me and my traveling companion. When we got to the hotel we were told they were out of doubles and would have to stay in a room with one bed. This was not the room we paid for, and it meant I had to share a bed with the person I was traveling with which was extremely uncomfortable. 
+When I showed the person checking us in (who also happened to be the manager) our booking confirmation indicating we had booked a double he said there was nothing he could do — they had already offered our room to guests who arrived before us and, of course, could not ask them to leave. This manager did not apologize or try to make the hotel’s mistake right. He was so rude to us, basically blamed us for the mix-up, told us...This hotel offers a free airport shuttle, but I’ve never had such a bad experience with this service at a hotel. Guests are expected to call the hotel when they arrive to schedule a pick-up. Once we called, we were told the van would take 20 minutes tops to arrive. We waited for an hour. By the time the shuttle got to our location so many guests were waiting that a couple had to be left behind (after being guaranteed a pick-up over phone and waiting for an hour!)Now on to the hotel itself... I booked a DOUBLE room for me and my traveling companion. When we got to the hotel we were told they were out of doubles and would have to stay in a room with one bed. This was not the room we paid for, and it meant I had to share a bed with the person I was traveling with which was extremely uncomfortable. When I showed the person checking us in (who also happened to be the manager) our booking confirmation indicating we had booked a double he said there was nothing he could do — they had already offered our room to guests who arrived before us and, of course, could not ask them to leave. This manager did not apologize or try to make the hotel’s mistake right. He was so rude to us, basically blamed us for the mix-up, told us he could not offer us a a discount for our single-bed room, and that our only option was to leave the hotel. At the very least he could’ve offered us a meal or SOMETHING. But he did nothing. Instead, he spoke to us in such a demeaning way that the person I was traveling with started to cry out of frustration. To make things worse, this is the SECOND TIME this week that this happened at a Courtyard (see earlier review for Chicago O’Hare location). Unfortunately I had already booked this room before the first incident. When I called Marriott customerservice about the first incident they did nothing except note what happened and told me I’d have to wait 5 business days for them to review the incident. I will not be staying at a Courtyard or any affiliated hotel ever again. If you want to get what you paid for and get treated like a human being you should consider looking elsewhere, too. MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>TeamConcord, Manager at Courtyard Houston Intercontinental Airport, responded to this reviewResponded February 26, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 26, 2018</t>
+  </si>
+  <si>
+    <t>This hotel offers a free airport shuttle, but I’ve never had such a bad experience with this service at a hotel. Guests are expected to call the hotel when they arrive to schedule a pick-up. Once we called, we were told the van would take 20 minutes tops to arrive. We waited for an hour. By the time the shuttle got to our location so many guests were waiting that a couple had to be left behind (after being guaranteed a pick-up over phone and waiting for an hour!)
+Now on to the hotel itself... I booked a DOUBLE room for me and my traveling companion. When we got to the hotel we were told they were out of doubles and would have to stay in a room with one bed. This was not the room we paid for, and it meant I had to share a bed with the person I was traveling with which was extremely uncomfortable. 
+When I showed the person checking us in (who also happened to be the manager) our booking confirmation indicating we had booked a double he said there was nothing he could do — they had already offered our room to guests who arrived before us and, of course, could not ask them to leave. This manager did not apologize or try to make the hotel’s mistake right. He was so rude to us, basically blamed us for the mix-up, told us...This hotel offers a free airport shuttle, but I’ve never had such a bad experience with this service at a hotel. Guests are expected to call the hotel when they arrive to schedule a pick-up. Once we called, we were told the van would take 20 minutes tops to arrive. We waited for an hour. By the time the shuttle got to our location so many guests were waiting that a couple had to be left behind (after being guaranteed a pick-up over phone and waiting for an hour!)Now on to the hotel itself... I booked a DOUBLE room for me and my traveling companion. When we got to the hotel we were told they were out of doubles and would have to stay in a room with one bed. This was not the room we paid for, and it meant I had to share a bed with the person I was traveling with which was extremely uncomfortable. When I showed the person checking us in (who also happened to be the manager) our booking confirmation indicating we had booked a double he said there was nothing he could do — they had already offered our room to guests who arrived before us and, of course, could not ask them to leave. This manager did not apologize or try to make the hotel’s mistake right. He was so rude to us, basically blamed us for the mix-up, told us he could not offer us a a discount for our single-bed room, and that our only option was to leave the hotel. At the very least he could’ve offered us a meal or SOMETHING. But he did nothing. Instead, he spoke to us in such a demeaning way that the person I was traveling with started to cry out of frustration. To make things worse, this is the SECOND TIME this week that this happened at a Courtyard (see earlier review for Chicago O’Hare location). Unfortunately I had already booked this room before the first incident. When I called Marriott customerservice about the first incident they did nothing except note what happened and told me I’d have to wait 5 business days for them to review the incident. I will not be staying at a Courtyard or any affiliated hotel ever again. If you want to get what you paid for and get treated like a human being you should consider looking elsewhere, too. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12525394-r562403456-Courtyard_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>562403456</t>
+  </si>
+  <si>
+    <t>02/23/2018</t>
+  </si>
+  <si>
+    <t>This Courtyard feels like a prefab</t>
+  </si>
+  <si>
+    <t>Not sure who designed this cheaply made Marriott. This is a stopped down hotel room. There is not enough furniture for normal used. And I think the runway runs through my room. The planes keep going. This room really is a joke. If this were my first Courtyard, it would be my last. I stayed in a different Courtyard last night. You would never know they were the same company. You should see the headboard, our a cheap pillow. No headboard. Not a picture on the walls. Are you not finished? This one is only five months old. I picked it because it said new hotel on Marriott's site. Have they been here? Did they approve this. And I noticed when I got to the room that they only gave me one key. Been a long time since a hotel has given me one key when two of us checked in. The front desk guy seemed bothered to give us a second key. And we asked if there were any Platinum upgrades, here said the hotel was sold out. We are looking for people and can't find them. Fess up Marriott. This is a major downgrade.MoreShow less</t>
+  </si>
+  <si>
+    <t>TeamConcord, Manager at Courtyard Houston Intercontinental Airport, responded to this reviewResponded February 24, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 24, 2018</t>
+  </si>
+  <si>
+    <t>Not sure who designed this cheaply made Marriott. This is a stopped down hotel room. There is not enough furniture for normal used. And I think the runway runs through my room. The planes keep going. This room really is a joke. If this were my first Courtyard, it would be my last. I stayed in a different Courtyard last night. You would never know they were the same company. You should see the headboard, our a cheap pillow. No headboard. Not a picture on the walls. Are you not finished? This one is only five months old. I picked it because it said new hotel on Marriott's site. Have they been here? Did they approve this. And I noticed when I got to the room that they only gave me one key. Been a long time since a hotel has given me one key when two of us checked in. The front desk guy seemed bothered to give us a second key. And we asked if there were any Platinum upgrades, here said the hotel was sold out. We are looking for people and can't find them. Fess up Marriott. This is a major downgrade.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12525394-r562173150-Courtyard_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>562173150</t>
+  </si>
+  <si>
+    <t>02/22/2018</t>
+  </si>
+  <si>
+    <t>Absolutely AMAZING Service and Quality</t>
+  </si>
+  <si>
+    <t>I don't even know where to begin. Let me first say that I was very skeptical at first staying at an airport hotel but the minute we walked in, I was blown away by the outstanding service and decor of the hotel. After entering our room, we were ready to get to bed. The bed, linens, bathrooms and eating area of the room were so clean! Everything is updated and modern, very spacious with a beautiful view!Our most pleasant experience came with Dawn and Marcus. Both of them went above and beyond for our soccer team, that was here visiting from Atlanta. Two of the days we had early morning games. They BOTH prepared a wonderful menu for our girls and a customized meal plan where we could 'grab n go'. All of the parents, girls and coaches were beyond excited! With all the travel this soccer team does, we have yet to have this experience from any hotel, and it will certainly be difficult to live up to this service we just experienced.Thank you SOOOOO much Dawn and Marcus. We love you guys and when we come to Houston again, we'll be sure to stay at your hotel. You guys are AWESOME and it's because of you two that made this experience the best for our entire team!MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>I don't even know where to begin. Let me first say that I was very skeptical at first staying at an airport hotel but the minute we walked in, I was blown away by the outstanding service and decor of the hotel. After entering our room, we were ready to get to bed. The bed, linens, bathrooms and eating area of the room were so clean! Everything is updated and modern, very spacious with a beautiful view!Our most pleasant experience came with Dawn and Marcus. Both of them went above and beyond for our soccer team, that was here visiting from Atlanta. Two of the days we had early morning games. They BOTH prepared a wonderful menu for our girls and a customized meal plan where we could 'grab n go'. All of the parents, girls and coaches were beyond excited! With all the travel this soccer team does, we have yet to have this experience from any hotel, and it will certainly be difficult to live up to this service we just experienced.Thank you SOOOOO much Dawn and Marcus. We love you guys and when we come to Houston again, we'll be sure to stay at your hotel. You guys are AWESOME and it's because of you two that made this experience the best for our entire team!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12525394-r554039874-Courtyard_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>554039874</t>
+  </si>
+  <si>
+    <t>01/15/2018</t>
+  </si>
+  <si>
+    <t>My new IAH favorite</t>
+  </si>
+  <si>
+    <t>In the past I've stayed next door at the Springhill Suties but I wanted to give this property a try since I got a great rate.  From airport pickup to check-out, I was nothing but impressed with this property..... thanks Lala for the great welcome upon check-in.  A very open and welcoming lobby / conversation area that is adjacent to the bar and restaurant makes you want to hang out instead of trying to find somewhere else to go.The room was modern, clean, quiet, and provided a great night's sleep with a large glass walk-in shower.I did not utilize the fitness room but it was nicely appointed with some weights, benches, and cardio equipment.I'll definitely look here first the next time I fly into IAH.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>TeamConcord, General Manager at Courtyard Houston Intercontinental Airport, responded to this reviewResponded January 16, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 16, 2018</t>
+  </si>
+  <si>
+    <t>In the past I've stayed next door at the Springhill Suties but I wanted to give this property a try since I got a great rate.  From airport pickup to check-out, I was nothing but impressed with this property..... thanks Lala for the great welcome upon check-in.  A very open and welcoming lobby / conversation area that is adjacent to the bar and restaurant makes you want to hang out instead of trying to find somewhere else to go.The room was modern, clean, quiet, and provided a great night's sleep with a large glass walk-in shower.I did not utilize the fitness room but it was nicely appointed with some weights, benches, and cardio equipment.I'll definitely look here first the next time I fly into IAH.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12525394-r552708684-Courtyard_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>552708684</t>
+  </si>
+  <si>
+    <t>01/09/2018</t>
+  </si>
+  <si>
+    <t>Awesome</t>
+  </si>
+  <si>
+    <t>This Hotel was easily one of the best I've stayed in. The rooms were comfortable and very clean (including the keurig). The Bistro has really good  food but breakfast is amazing and so worth the price the blueberry pancakes we're awesome.  The Staff was the best part always friendly and helpful Dawn is an asset to this company very knowledgeable and helpful and always happy. This is one Hotel I will recommend to everyone.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12525394-r550748306-Courtyard_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>550748306</t>
+  </si>
+  <si>
+    <t>01/01/2018</t>
+  </si>
+  <si>
+    <t>Nice Hotel Close to Airport</t>
+  </si>
+  <si>
+    <t>The hotel is new and close to the airport.  Perfect if you have a layover and want somewhere to spend the night.  There is a free shuttle with friendly drivers who pick you up/drop you off to the airport on request.  The room itself was clean, comfortable and standard.  The design of the hotel could have been improved as all suites appear to be close to elevators which is a weird place to have suites.  However, since the hotel is clean and new, it's a good choice to be in if you want to be close to the airport.  Tip - don't let the proximity of the airport fool you, still plan to leave the hotel early enough to reach there 2 hours in advance.MoreShow less</t>
+  </si>
+  <si>
+    <t>TeamConcord, General Manager at Courtyard Houston Intercontinental Airport, responded to this reviewResponded January 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 2, 2018</t>
+  </si>
+  <si>
+    <t>The hotel is new and close to the airport.  Perfect if you have a layover and want somewhere to spend the night.  There is a free shuttle with friendly drivers who pick you up/drop you off to the airport on request.  The room itself was clean, comfortable and standard.  The design of the hotel could have been improved as all suites appear to be close to elevators which is a weird place to have suites.  However, since the hotel is clean and new, it's a good choice to be in if you want to be close to the airport.  Tip - don't let the proximity of the airport fool you, still plan to leave the hotel early enough to reach there 2 hours in advance.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12525394-r543589941-Courtyard_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>543589941</t>
+  </si>
+  <si>
+    <t>11/27/2017</t>
+  </si>
+  <si>
+    <t>Fabulous staff/stay</t>
+  </si>
+  <si>
+    <t>What a refreshing stay at a new hotel.  The staff and the accommodations were excellent.  The staff in particular were extremely helpful, friendly and went out of their way to assist us with whatever our needs were.  Keep up the great work!</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12525394-r543158752-Courtyard_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>543158752</t>
+  </si>
+  <si>
+    <t>11/25/2017</t>
+  </si>
+  <si>
+    <t>Fantastic first visit, and I truly look forward to more!</t>
+  </si>
+  <si>
+    <t>This location exceeded ALL expectations. It's rare that even when I offer the highest TA rating, I don't still wish that something had been even a wee bit different. That is not the case with this visit to this particular location. Would not have changed a thing.
+Courtyard Houston IAH had only been officially open for a few weeks.  I'd watched a bit of its construction while staying at other neighboring properties and knew that I'd want to try it out. The location is SO close to Houston IAH that you are barely getting settled in the complimentary airport shuttle when you realize you've arrived and time to get out. Speaking of the shuttle, the drivers were excellent on each quick trip and made you feel welcome.
+And speaking of welcome, the gentleman at the registration podium could not have been more personable. Made me feel like a valued guest from the moment I stepped inside the door. The same could be said for the wonderful lady at check-out. The lobby is in pristine shape, but that should be expected due to being so new. A nice Starbucks coffee offering on one side, and a relaxing TV viewing area on another.
+My room assignment was directly beside one of the elevators, and that caused an initial concern, but I decided to give it a try rather than immediately requesting a room change. It turns out the concern was totally unfounded,...This location exceeded ALL expectations. It's rare that even when I offer the highest TA rating, I don't still wish that something had been even a wee bit different. That is not the case with this visit to this particular location. Would not have changed a thing.Courtyard Houston IAH had only been officially open for a few weeks.  I'd watched a bit of its construction while staying at other neighboring properties and knew that I'd want to try it out. The location is SO close to Houston IAH that you are barely getting settled in the complimentary airport shuttle when you realize you've arrived and time to get out. Speaking of the shuttle, the drivers were excellent on each quick trip and made you feel welcome.And speaking of welcome, the gentleman at the registration podium could not have been more personable. Made me feel like a valued guest from the moment I stepped inside the door. The same could be said for the wonderful lady at check-out. The lobby is in pristine shape, but that should be expected due to being so new. A nice Starbucks coffee offering on one side, and a relaxing TV viewing area on another.My room assignment was directly beside one of the elevators, and that caused an initial concern, but I decided to give it a try rather than immediately requesting a room change. It turns out the concern was totally unfounded, as I didn't hear anything whatsoever from the elevator during my stay. Yes, you CAN hear some jet engine noise from outside due to the close proximity of the airport, but it was handled very well with whatever type of glass was installed in the rooms. All was expected, but was way better then anticipated.The design of the rooms is rather unique and modern . . . and I really liked it. Good use of space in the bedroom and bathroom. The television is quite large and offered great viewing angles with a swivel mounting. Plenty of plugs for charging/using electronics. Quality lighting throughout. Coffee, microwave, and mini cooler all in perfect working order.The bed . . . oh, the bed. Yep, it was new and should have been in great shape, but it was super comfortable. Easily operated clock/alarm on the nightstand. I never used the loveseat, but it looked attractive with the decorative pillows.When traveling to Houston, this will be my new Go-To hotel, and I really look forward to upcoming re-visits.  I can (and will) highly recommend it to others with ease. They have their act together in a big way, which is not always the case when new properties open. Thanks, Courtyard, for a wonderful first visit, and making me feel so comfortable and welcome. See ya again soon!!MoreShow less</t>
+  </si>
+  <si>
+    <t>TeamConcord, General Manager at Courtyard Houston Intercontinental Airport, responded to this reviewResponded November 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 27, 2017</t>
+  </si>
+  <si>
+    <t>This location exceeded ALL expectations. It's rare that even when I offer the highest TA rating, I don't still wish that something had been even a wee bit different. That is not the case with this visit to this particular location. Would not have changed a thing.
+Courtyard Houston IAH had only been officially open for a few weeks.  I'd watched a bit of its construction while staying at other neighboring properties and knew that I'd want to try it out. The location is SO close to Houston IAH that you are barely getting settled in the complimentary airport shuttle when you realize you've arrived and time to get out. Speaking of the shuttle, the drivers were excellent on each quick trip and made you feel welcome.
+And speaking of welcome, the gentleman at the registration podium could not have been more personable. Made me feel like a valued guest from the moment I stepped inside the door. The same could be said for the wonderful lady at check-out. The lobby is in pristine shape, but that should be expected due to being so new. A nice Starbucks coffee offering on one side, and a relaxing TV viewing area on another.
+My room assignment was directly beside one of the elevators, and that caused an initial concern, but I decided to give it a try rather than immediately requesting a room change. It turns out the concern was totally unfounded,...This location exceeded ALL expectations. It's rare that even when I offer the highest TA rating, I don't still wish that something had been even a wee bit different. That is not the case with this visit to this particular location. Would not have changed a thing.Courtyard Houston IAH had only been officially open for a few weeks.  I'd watched a bit of its construction while staying at other neighboring properties and knew that I'd want to try it out. The location is SO close to Houston IAH that you are barely getting settled in the complimentary airport shuttle when you realize you've arrived and time to get out. Speaking of the shuttle, the drivers were excellent on each quick trip and made you feel welcome.And speaking of welcome, the gentleman at the registration podium could not have been more personable. Made me feel like a valued guest from the moment I stepped inside the door. The same could be said for the wonderful lady at check-out. The lobby is in pristine shape, but that should be expected due to being so new. A nice Starbucks coffee offering on one side, and a relaxing TV viewing area on another.My room assignment was directly beside one of the elevators, and that caused an initial concern, but I decided to give it a try rather than immediately requesting a room change. It turns out the concern was totally unfounded, as I didn't hear anything whatsoever from the elevator during my stay. Yes, you CAN hear some jet engine noise from outside due to the close proximity of the airport, but it was handled very well with whatever type of glass was installed in the rooms. All was expected, but was way better then anticipated.The design of the rooms is rather unique and modern . . . and I really liked it. Good use of space in the bedroom and bathroom. The television is quite large and offered great viewing angles with a swivel mounting. Plenty of plugs for charging/using electronics. Quality lighting throughout. Coffee, microwave, and mini cooler all in perfect working order.The bed . . . oh, the bed. Yep, it was new and should have been in great shape, but it was super comfortable. Easily operated clock/alarm on the nightstand. I never used the loveseat, but it looked attractive with the decorative pillows.When traveling to Houston, this will be my new Go-To hotel, and I really look forward to upcoming re-visits.  I can (and will) highly recommend it to others with ease. They have their act together in a big way, which is not always the case when new properties open. Thanks, Courtyard, for a wonderful first visit, and making me feel so comfortable and welcome. See ya again soon!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12525394-r534535258-Courtyard_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>534535258</t>
+  </si>
+  <si>
+    <t>10/20/2017</t>
+  </si>
+  <si>
+    <t>Staff were very friendly and courteous.</t>
+  </si>
+  <si>
+    <t>Nice, clean with the exception if small crawling insect on bathroom floor. However,  Houston is a wet city.  Staff were very friendly and helpful. However, not the best value.  The pool is small, unheated and actually at the Spring Hill Suites next door.  This appears to be a newer hotel.  Conveniently located neat the IAH airport. I would probably try the Spring Hill next door if staying in the area again. If that is booked, this hotel is fine for a night or two for a business.</t>
+  </si>
+  <si>
+    <t>October 2017</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1058,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1090,1394 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>65726</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>65726</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s"/>
+      <c r="O3" t="s"/>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>65726</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O4" t="s">
+        <v>68</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>4</v>
+      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>69</v>
+      </c>
+      <c r="X4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>65726</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>67</v>
+      </c>
+      <c r="O5" t="s">
+        <v>68</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>77</v>
+      </c>
+      <c r="X5" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>65726</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" t="s">
+        <v>82</v>
+      </c>
+      <c r="K6" t="s">
+        <v>83</v>
+      </c>
+      <c r="L6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>67</v>
+      </c>
+      <c r="O6" t="s">
+        <v>68</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>65726</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L7" t="s">
+        <v>89</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>67</v>
+      </c>
+      <c r="O7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>90</v>
+      </c>
+      <c r="X7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>65726</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>94</v>
+      </c>
+      <c r="J8" t="s">
+        <v>95</v>
+      </c>
+      <c r="K8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L8" t="s">
+        <v>97</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>98</v>
+      </c>
+      <c r="O8" t="s">
+        <v>68</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>4</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>99</v>
+      </c>
+      <c r="X8" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>65726</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>103</v>
+      </c>
+      <c r="J9" t="s">
+        <v>104</v>
+      </c>
+      <c r="K9" t="s">
+        <v>105</v>
+      </c>
+      <c r="L9" t="s">
+        <v>106</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s"/>
+      <c r="O9" t="s"/>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>107</v>
+      </c>
+      <c r="X9" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>65726</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>110</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>111</v>
+      </c>
+      <c r="J10" t="s">
+        <v>112</v>
+      </c>
+      <c r="K10" t="s">
+        <v>113</v>
+      </c>
+      <c r="L10" t="s">
+        <v>114</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>115</v>
+      </c>
+      <c r="O10" t="s">
+        <v>68</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>116</v>
+      </c>
+      <c r="X10" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>65726</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>120</v>
+      </c>
+      <c r="J11" t="s">
+        <v>121</v>
+      </c>
+      <c r="K11" t="s">
+        <v>122</v>
+      </c>
+      <c r="L11" t="s">
+        <v>123</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>124</v>
+      </c>
+      <c r="O11" t="s">
+        <v>68</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
+        <v>4</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>125</v>
+      </c>
+      <c r="X11" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>65726</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>128</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>129</v>
+      </c>
+      <c r="J12" t="s">
+        <v>130</v>
+      </c>
+      <c r="K12" t="s">
+        <v>131</v>
+      </c>
+      <c r="L12" t="s">
+        <v>132</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>124</v>
+      </c>
+      <c r="O12" t="s">
+        <v>133</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>134</v>
+      </c>
+      <c r="X12" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>65726</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>137</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>138</v>
+      </c>
+      <c r="J13" t="s">
+        <v>139</v>
+      </c>
+      <c r="K13" t="s">
+        <v>140</v>
+      </c>
+      <c r="L13" t="s">
+        <v>141</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>142</v>
+      </c>
+      <c r="O13" t="s">
+        <v>68</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>143</v>
+      </c>
+      <c r="X13" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>65726</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>146</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>147</v>
+      </c>
+      <c r="J14" t="s">
+        <v>148</v>
+      </c>
+      <c r="K14" t="s">
+        <v>149</v>
+      </c>
+      <c r="L14" t="s">
+        <v>150</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>151</v>
+      </c>
+      <c r="O14" t="s">
+        <v>133</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>152</v>
+      </c>
+      <c r="X14" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>65726</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>155</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>156</v>
+      </c>
+      <c r="J15" t="s">
+        <v>157</v>
+      </c>
+      <c r="K15" t="s">
+        <v>158</v>
+      </c>
+      <c r="L15" t="s">
+        <v>159</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>151</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>160</v>
+      </c>
+      <c r="X15" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>65726</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>163</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>164</v>
+      </c>
+      <c r="J16" t="s">
+        <v>165</v>
+      </c>
+      <c r="K16" t="s">
+        <v>166</v>
+      </c>
+      <c r="L16" t="s">
+        <v>167</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>151</v>
+      </c>
+      <c r="O16" t="s">
+        <v>168</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>65726</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>170</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>171</v>
+      </c>
+      <c r="J17" t="s">
+        <v>172</v>
+      </c>
+      <c r="K17" t="s">
+        <v>173</v>
+      </c>
+      <c r="L17" t="s">
+        <v>174</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>175</v>
+      </c>
+      <c r="O17" t="s">
+        <v>176</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>177</v>
+      </c>
+      <c r="X17" t="s">
+        <v>178</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>65726</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>180</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>181</v>
+      </c>
+      <c r="J18" t="s">
+        <v>182</v>
+      </c>
+      <c r="K18" t="s">
+        <v>183</v>
+      </c>
+      <c r="L18" t="s">
+        <v>184</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>175</v>
+      </c>
+      <c r="O18" t="s">
+        <v>133</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>65726</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>185</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>186</v>
+      </c>
+      <c r="J19" t="s">
+        <v>187</v>
+      </c>
+      <c r="K19" t="s">
+        <v>188</v>
+      </c>
+      <c r="L19" t="s">
+        <v>189</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>115</v>
+      </c>
+      <c r="O19" t="s">
+        <v>176</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>190</v>
+      </c>
+      <c r="X19" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>65726</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>193</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>194</v>
+      </c>
+      <c r="J20" t="s">
+        <v>195</v>
+      </c>
+      <c r="K20" t="s">
+        <v>196</v>
+      </c>
+      <c r="L20" t="s">
+        <v>197</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>198</v>
+      </c>
+      <c r="O20" t="s">
+        <v>68</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>65726</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>199</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>200</v>
+      </c>
+      <c r="J21" t="s">
+        <v>201</v>
+      </c>
+      <c r="K21" t="s">
+        <v>202</v>
+      </c>
+      <c r="L21" t="s">
+        <v>203</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>198</v>
+      </c>
+      <c r="O21" t="s">
+        <v>176</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>204</v>
+      </c>
+      <c r="X21" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>65726</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>207</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>208</v>
+      </c>
+      <c r="J22" t="s">
+        <v>209</v>
+      </c>
+      <c r="K22" t="s">
+        <v>210</v>
+      </c>
+      <c r="L22" t="s">
+        <v>211</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>212</v>
+      </c>
+      <c r="O22" t="s">
+        <v>68</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>211</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_143.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_143.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="319">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,84 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/08/2018</t>
+    <t>09/04/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12525394-r606523952-Courtyard_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>12525394</t>
+  </si>
+  <si>
+    <t>606523952</t>
+  </si>
+  <si>
+    <t>08/14/2018</t>
+  </si>
+  <si>
+    <t>Great airport hotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We just had a brief stay here but really liked it. We have stayed at several hotels in the area over the past five years prior to flights but this one really stood out. The property is very new and modern. Rooms were comfy and quiet (something key for resting before an early flight). Nice little modern amenities like charging stations on both sides of the bed. Overall loved this very new and reasonably priced hotel. </t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12525394-r569792287-Courtyard_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>569792287</t>
+  </si>
+  <si>
+    <t>03/30/2018</t>
+  </si>
+  <si>
+    <t>Great Overnight Stay!</t>
+  </si>
+  <si>
+    <t>Stayed here for a quick overnight stay before flying out of IAH.  The rooms are very clean and they feel quite spacious.  The front desk staff were very helpful and courteous the night we checked in.  There is a little bit of airplane noise that comes and goes, but you are right next to the airport so that should be expected.  The room is pretty tech savy and I like all of the charging capabilities on the night stand.  The morning of our departure we went downstairs to breakfast.  Breakfast was good.  Everybody we encountered (front desk staff, cleaning staff, cafe staff) were so nice and friendly.  I would stay here again in a heartbeat.  Clean place and friendly staff, yep, my kind of place!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Stayed here for a quick overnight stay before flying out of IAH.  The rooms are very clean and they feel quite spacious.  The front desk staff were very helpful and courteous the night we checked in.  There is a little bit of airplane noise that comes and goes, but you are right next to the airport so that should be expected.  The room is pretty tech savy and I like all of the charging capabilities on the night stand.  The morning of our departure we went downstairs to breakfast.  Breakfast was good.  Everybody we encountered (front desk staff, cleaning staff, cafe staff) were so nice and friendly.  I would stay here again in a heartbeat.  Clean place and friendly staff, yep, my kind of place!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12525394-r602488295-Courtyard_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>602488295</t>
+  </si>
+  <si>
+    <t>08/03/2018</t>
+  </si>
+  <si>
+    <t>Very comfortable stay</t>
+  </si>
+  <si>
+    <t>Friendly service! Great food at the bistro &amp; even better service!!! Thanks Sarah &amp; Paige. Special thanks to Donnel! You’re awesome &amp; thank you for making me feel like I was at home! He even told me about all the cool places to visit in Houston.</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12525394-r600940460-Courtyard_Houston_Intercontinental_Airport-Houston_Texas.html</t>
   </si>
   <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>12525394</t>
-  </si>
-  <si>
     <t>600940460</t>
   </si>
   <si>
@@ -174,16 +240,10 @@
     <t>We had a layover in Houston from Cabo San Lucas . Unfortunately, the flight got cancelled do to bad weather in New York . Doing some research and reading the reviews, I choose this hotel. Very accurate reviews! The hotel is so clean and new. The employees were excellent. Room very nice, with large tv. The only thing I would change are the pillows. Too soft. The best perk is the free shuttle too and from the airport that is so convenient . We would def stay in this hotel again. MoreShow less</t>
   </si>
   <si>
-    <t>July 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
-    <t>TeamConcord, Manager at Courtyard Houston Intercontinental Airport, responded to this reviewResponded 1 week ago</t>
-  </si>
-  <si>
-    <t>Responded 1 week ago</t>
+    <t>TeamConcord, Manager at Courtyard Houston Intercontinental Airport, responded to this reviewResponded July 30, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 30, 2018</t>
   </si>
   <si>
     <t>We had a layover in Houston from Cabo San Lucas . Unfortunately, the flight got cancelled do to bad weather in New York . Doing some research and reading the reviews, I choose this hotel. Very accurate reviews! The hotel is so clean and new. The employees were excellent. Room very nice, with large tv. The only thing I would change are the pillows. Too soft. The best perk is the free shuttle too and from the airport that is so convenient . We would def stay in this hotel again. More</t>
@@ -222,18 +282,70 @@
     <t>June 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
-    <t>TeamConcord, Manager at Courtyard Houston Intercontinental Airport, responded to this reviewResponded 4 weeks ago</t>
-  </si>
-  <si>
-    <t>Responded 4 weeks ago</t>
+    <t>TeamConcord, Manager at Courtyard Houston Intercontinental Airport, responded to this reviewResponded July 7, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 7, 2018</t>
   </si>
   <si>
     <t>Location is very good about 30 minutes to Midtown and 10 to the airport. Rooms are very good bathroom is huge and very clean, water temperature is also good on high floors. Everybody in the hotel is very friendly in a genuine way, it is not the standard trained welcome chatter etc. but they mean it. Special thanks to the reception guys and Sarah and Paige in the bar they make you feel at home.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12525394-r591032658-Courtyard_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>591032658</t>
+  </si>
+  <si>
+    <t>06/26/2018</t>
+  </si>
+  <si>
+    <t>Fantastic Staff , good room , good food &amp; bar , great shower !</t>
+  </si>
+  <si>
+    <t>Arrived here somewhat frazzled , as we'd thought we'd booked the Marriott at the airport , only to discover there that we were outside the Airport precinct.
+Staff at the Airport Marriott were less than helpful , but we eventually connected to the Courtyard and the manager there sent transport to pick us up and we arrived about 15 minutes later.
+We did arrive much later than we had booked , as our flight was delayed , and our luggage was "somewhere !" at the airport , so we were less than happy campers when we finally arrived here.
+The manager was , however , most courteous , sympathetic and helpful. We made our way to our room and then headed to the bar , where the server , again was helpful and sympathetic , she arranged for the closed kitchen to get us some dinner , and supplied us with house special drinks , superbly made !
+In fact , all the staff here , that we interacted with, were the most friendly and helpful people we met in Houston.
+Th room was quite large , a good bed , although it had a metal bar protruding from the underside (we did notify) good TV , excellent bathroom &amp; Shower. Our biggest issue with the room was the AC , whilst the control showed an off position , the unit itself did not turn off , and it was...Arrived here somewhat frazzled , as we'd thought we'd booked the Marriott at the airport , only to discover there that we were outside the Airport precinct.Staff at the Airport Marriott were less than helpful , but we eventually connected to the Courtyard and the manager there sent transport to pick us up and we arrived about 15 minutes later.We did arrive much later than we had booked , as our flight was delayed , and our luggage was "somewhere !" at the airport , so we were less than happy campers when we finally arrived here.The manager was , however , most courteous , sympathetic and helpful. We made our way to our room and then headed to the bar , where the server , again was helpful and sympathetic , she arranged for the closed kitchen to get us some dinner , and supplied us with house special drinks , superbly made !In fact , all the staff here , that we interacted with, were the most friendly and helpful people we met in Houston.Th room was quite large , a good bed , although it had a metal bar protruding from the underside (we did notify) good TV , excellent bathroom &amp; Shower. Our biggest issue with the room was the AC , whilst the control showed an off position , the unit itself did not turn off , and it was a little noisy all night.Breakfast in the lobby was good , again we arrived late , and the bar attendant had to make it for us , she claimed to not be too good at this , but what she served us was excellent.So , we loved the staff here , they were better than the hotel deserved ! They make up for some things being a bit below standard namely the AC.I would have given a better score if I could have turned the noisy AC off and had more sleep.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>TeamConcord, Manager at Courtyard Houston Intercontinental Airport, responded to this reviewResponded June 27, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 27, 2018</t>
+  </si>
+  <si>
+    <t>Arrived here somewhat frazzled , as we'd thought we'd booked the Marriott at the airport , only to discover there that we were outside the Airport precinct.
+Staff at the Airport Marriott were less than helpful , but we eventually connected to the Courtyard and the manager there sent transport to pick us up and we arrived about 15 minutes later.
+We did arrive much later than we had booked , as our flight was delayed , and our luggage was "somewhere !" at the airport , so we were less than happy campers when we finally arrived here.
+The manager was , however , most courteous , sympathetic and helpful. We made our way to our room and then headed to the bar , where the server , again was helpful and sympathetic , she arranged for the closed kitchen to get us some dinner , and supplied us with house special drinks , superbly made !
+In fact , all the staff here , that we interacted with, were the most friendly and helpful people we met in Houston.
+Th room was quite large , a good bed , although it had a metal bar protruding from the underside (we did notify) good TV , excellent bathroom &amp; Shower. Our biggest issue with the room was the AC , whilst the control showed an off position , the unit itself did not turn off , and it was...Arrived here somewhat frazzled , as we'd thought we'd booked the Marriott at the airport , only to discover there that we were outside the Airport precinct.Staff at the Airport Marriott were less than helpful , but we eventually connected to the Courtyard and the manager there sent transport to pick us up and we arrived about 15 minutes later.We did arrive much later than we had booked , as our flight was delayed , and our luggage was "somewhere !" at the airport , so we were less than happy campers when we finally arrived here.The manager was , however , most courteous , sympathetic and helpful. We made our way to our room and then headed to the bar , where the server , again was helpful and sympathetic , she arranged for the closed kitchen to get us some dinner , and supplied us with house special drinks , superbly made !In fact , all the staff here , that we interacted with, were the most friendly and helpful people we met in Houston.Th room was quite large , a good bed , although it had a metal bar protruding from the underside (we did notify) good TV , excellent bathroom &amp; Shower. Our biggest issue with the room was the AC , whilst the control showed an off position , the unit itself did not turn off , and it was a little noisy all night.Breakfast in the lobby was good , again we arrived late , and the bar attendant had to make it for us , she claimed to not be too good at this , but what she served us was excellent.So , we loved the staff here , they were better than the hotel deserved ! They make up for some things being a bit below standard namely the AC.I would have given a better score if I could have turned the noisy AC off and had more sleep.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12525394-r590594313-Courtyard_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>590594313</t>
+  </si>
+  <si>
+    <t>06/25/2018</t>
+  </si>
+  <si>
+    <t>Nice!</t>
+  </si>
+  <si>
+    <t>I stayed here overnight while on a business trip. The hotel is very nice. The bathroom was very lovely. I had a king room and it was very spacious. Staff was very helpful. They were also helpful in making sure I did not miss my early morning flight. I did not have to wait for the shuttle very long. If I am ever in Houston again, I will definitely stay here!</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12525394-r589853039-Courtyard_Houston_Intercontinental_Airport-Houston_Texas.html</t>
   </si>
   <si>
@@ -297,6 +409,45 @@
     <t>Stayed here for 2 nights for business.  It’s right near the airport which is both a plus and a con.Pros:Friendly staffNice gym with pull up bar and up to 50lb dumbbellsPurified water bottle filling stationClean, comfortable roomSnack bar for purchase offered, along with Starbucks café  Reliable WIFIVery short drive to airport – about 10 minutes to and from.Cons:You can hear airplanes flying overhead.  Bring earplugs if you are a light sleeperFood options in area are not great.  You’ll need to drive about 20 minutes north or southVery small fridge – hardly anything can fit in there, and no freezer compartment.  Would’ve liked more space.Although the hotel is conveniently close to the airport, I wouldn’t recommend a business stay here if you need to drive to downtown.  It is about 1 hour away.  All the good food options are a bit of a drive too.I would have to think  twice about staying here again because the fridge was just too small, but everything else about the stay was nice.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12525394-r585185116-Courtyard_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>585185116</t>
+  </si>
+  <si>
+    <t>06/04/2018</t>
+  </si>
+  <si>
+    <t>Modern, Clean, Good Food</t>
+  </si>
+  <si>
+    <t>I stay at this hotel weekly Monday through Thursday. The food options surrounding the hotel are not great, but the breakfast and dinner menu at The Bistro are always excellent. Sarah and Paige never disappoint and always remember my preferences for both food and drinks.MoreShow less</t>
+  </si>
+  <si>
+    <t>TeamConcord, Manager at Courtyard Houston Intercontinental Airport, responded to this reviewResponded June 5, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 5, 2018</t>
+  </si>
+  <si>
+    <t>I stay at this hotel weekly Monday through Thursday. The food options surrounding the hotel are not great, but the breakfast and dinner menu at The Bistro are always excellent. Sarah and Paige never disappoint and always remember my preferences for both food and drinks.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12525394-r584583065-Courtyard_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>584583065</t>
+  </si>
+  <si>
+    <t>06/02/2018</t>
+  </si>
+  <si>
+    <t>Awesome Marriott - totally modern</t>
+  </si>
+  <si>
+    <t>This is got to be the cleanest Marriott Courtyard I've ever been to. It has all the latest amenities and upgrades in the room and the service is excellent, location is awesome being near the airport. Very comfy rooms and beds. The Bistro downstairs is really nice. Easy parking and free.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12525394-r584068950-Courtyard_Houston_Intercontinental_Airport-Houston_Texas.html</t>
   </si>
   <si>
@@ -312,9 +463,6 @@
     <t>As a brand new hotel, all spaces were very clean and in good repair. The rooms are clean and comfortable and housekeeping was efficient. The gym, laundry and other amenities were fine and accessible.Most of the staff were very attentive and helpful. I would especially like to mention Dre, at the front desk, Sarah B. and Paige, from The Bistro. They were friendly, helpful and very professional. Sarah would greet each guest by their name, was a wonderful conversationalist while also tending bar and executing food orders, all with a smile on her face. Sarah is a true joy and an amazing asset to your team. Dre also greeted each guest by name and always asked if there was anything he could do to make the stay better.The only negatives were one unfortunate evening with bad service (Sarah and Paige's day off) and not being able to set the AC below 65.MoreShow less</t>
   </si>
   <si>
-    <t>May 2018</t>
-  </si>
-  <si>
     <t>TeamConcord, Manager at Courtyard Houston Intercontinental Airport, responded to this reviewResponded May 31, 2018</t>
   </si>
   <si>
@@ -375,6 +523,51 @@
     <t>Over the course of two days, our team stayed at the Courtyard and we rented a conference room to prepare for a presentation to a local client. The staff at he Courtyard was beyond helpful. They showed us how to use the projector screen, connect to the Wi-Fi, and print quick agendas. We had lunch catered from Panera and the staff at Courtyard helped us coordinate the delivery. In addition, we had a courier drop off the presentation boards to the hotel, which the front desk intercepted for us. They let us know when the courier arrived, and directed each new arrival from our team tot he conference room. The hotel itself is nothing exciting, but it was a great place to crash after a long day of preparation for our oral interview and Q&amp;A. Many thanks to the Courtyard staff for going above and beyond as we delivered a winning presentation!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12525394-r579589830-Courtyard_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>579589830</t>
+  </si>
+  <si>
+    <t>05/12/2018</t>
+  </si>
+  <si>
+    <t>Decent hotel, but lacking a few basics.</t>
+  </si>
+  <si>
+    <t>First of all the good- Location is very close to IAH airport, just a few minutes by Shuttle Bus.The Rooms look brand new, are very big, comfy beds,  great Bathroom and nice big TV, friendly reception staff.The bad - I waited an hour for the Shuttle Bus at the airport Terminal C,  finally called the Hotel after I had seen every other Hotel Bus go round twice,  only to be told 'you have to call us for the Bus to come get you'  -  Really ???  At a major airport like this you have to call for a Bus ???   Come on...  Every other hotel had the buses going round on a loop service.There is no proper Restaurant on site,  just a morning breakfast bar,  which appeared to be staffed by staff who didn't know how to run a morning breakfast bar.Its not ok to take like 10 minutes to make a Latte drink,  only use this breakfast place if you have time on your side to wait around...MoreShow less</t>
+  </si>
+  <si>
+    <t>TeamConcord, Manager at Courtyard Houston Intercontinental Airport, responded to this reviewResponded May 13, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 13, 2018</t>
+  </si>
+  <si>
+    <t>First of all the good- Location is very close to IAH airport, just a few minutes by Shuttle Bus.The Rooms look brand new, are very big, comfy beds,  great Bathroom and nice big TV, friendly reception staff.The bad - I waited an hour for the Shuttle Bus at the airport Terminal C,  finally called the Hotel after I had seen every other Hotel Bus go round twice,  only to be told 'you have to call us for the Bus to come get you'  -  Really ???  At a major airport like this you have to call for a Bus ???   Come on...  Every other hotel had the buses going round on a loop service.There is no proper Restaurant on site,  just a morning breakfast bar,  which appeared to be staffed by staff who didn't know how to run a morning breakfast bar.Its not ok to take like 10 minutes to make a Latte drink,  only use this breakfast place if you have time on your side to wait around...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12525394-r574800407-Courtyard_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>574800407</t>
+  </si>
+  <si>
+    <t>04/21/2018</t>
+  </si>
+  <si>
+    <t>Convenient and Everyone is Helpful &amp; Nice!</t>
+  </si>
+  <si>
+    <t>My husband and I returned to this location and stayed for three nights last week.  We were visiting friends in Houston and wanted to be close to the airport before we flew out.  We had stayed here in December and were impressed enough to return.  Every staff member we met while staying at the hotel was extremely professional and very nice!  Morning and afternoon desk staff were helpful &amp; knowledgeable.  We had a rental car and returned it the night before flight - the hotel sent a shuttle to the car rental agency to pick us up and bring us back.  Very helpful.The in-hotel restaurant is very good - friendly and helpful staff working there both morning and night.Rooms were clean and overall the hotel was very clean and smelt good.Overall, a fantastic Courtyard Marriot.  I'd recommend to anyone who wants to stay in the airport area.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>My husband and I returned to this location and stayed for three nights last week.  We were visiting friends in Houston and wanted to be close to the airport before we flew out.  We had stayed here in December and were impressed enough to return.  Every staff member we met while staying at the hotel was extremely professional and very nice!  Morning and afternoon desk staff were helpful &amp; knowledgeable.  We had a rental car and returned it the night before flight - the hotel sent a shuttle to the car rental agency to pick us up and bring us back.  Very helpful.The in-hotel restaurant is very good - friendly and helpful staff working there both morning and night.Rooms were clean and overall the hotel was very clean and smelt good.Overall, a fantastic Courtyard Marriot.  I'd recommend to anyone who wants to stay in the airport area.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12525394-r574162878-Courtyard_Houston_Intercontinental_Airport-Houston_Texas.html</t>
   </si>
   <si>
@@ -390,9 +583,6 @@
     <t>One word TRAYVON! I am Platinum with Marriott and stay at this property every week. I have been staying here since they opened the property a year ago. From the first time I checked in on my first visit TRAYVON has just amazed me with his positive outlook and his friendly and professional demeanor. The best part is I work with public and I feel beat up most of the time but when I enter the Marriott Courtyard TRAYVON is there to greet me with a smile and a good laugh and he makes ME feel like a valued customer. He greets me everytime by name which he knew by my second visit. One night we had bad weather in Houston and he actualy saw me outside in the parking lot running to the entrance. By the time I got there there was a line but he greeted me at the door with my room key and said " I saw you in the parking lot and everything is ready for you and I knew you would be tired and ready to go to your room".  WOW!! That's what I call real customer service. Marriott is very lucky to have TRAYVON representing their brand! And I hope he sees this post as he will not recognize the name I use here but will surely remember who I am. In addition, this Courtyard is very nice and very clean and it...One word TRAYVON! I am Platinum with Marriott and stay at this property every week. I have been staying here since they opened the property a year ago. From the first time I checked in on my first visit TRAYVON has just amazed me with his positive outlook and his friendly and professional demeanor. The best part is I work with public and I feel beat up most of the time but when I enter the Marriott Courtyard TRAYVON is there to greet me with a smile and a good laugh and he makes ME feel like a valued customer. He greets me everytime by name which he knew by my second visit. One night we had bad weather in Houston and he actualy saw me outside in the parking lot running to the entrance. By the time I got there there was a line but he greeted me at the door with my room key and said " I saw you in the parking lot and everything is ready for you and I knew you would be tired and ready to go to your room".  WOW!! That's what I call real customer service. Marriott is very lucky to have TRAYVON representing their brand! And I hope he sees this post as he will not recognize the name I use here but will surely remember who I am. In addition, this Courtyard is very nice and very clean and it is a failry new hotel. I love the large bathroom and glass shower and even though it is at the airport it is quiet except for the airplanes coming and going which are no bother to me. The Bistro in my opinion is a little pricey but overall if you are hungry and you are there on a stopover it is a little healthier than taco bell or jack in the box down the street. I do have other options in hotels. There are several Marriott properties around the hotel area and of course there is the Marriott right at the Airport. But to tell you the truth I feel at home at the Courtyard because of TRAYVON! So as long as he is there Courtyard will be my choice!MoreShow less</t>
   </si>
   <si>
-    <t>April 2018</t>
-  </si>
-  <si>
     <t>TeamConcord, Manager at Courtyard Houston Intercontinental Airport, responded to this reviewResponded April 18, 2018</t>
   </si>
   <si>
@@ -417,9 +607,6 @@
     <t>Location was great related to the IAH airport.  Shuttle service was efficient.  Rooms were clean and spacious as were the bathrooms.  Staff was friendly.  Only issue is that the hotel did not have its own pool and was shared with the Springhill suites across the parking lot.  Would stay again though.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>TeamConcord, Manager at Courtyard Houston Intercontinental Airport, responded to this reviewResponded April 8, 2018</t>
   </si>
   <si>
@@ -444,9 +631,6 @@
     <t>Marriott do a good job with their brand and style of hotel. This Courtyard is no exception.Checkin via mobile app - nice and easy.Room very comfortable and large. Issue with mine was it was an adjoining room - and that means you can hear the neigbours.Bathroom - large clean and tidy - good amenities. Walk in shower (no tub) with just a fixed shower head.Bed comfortable and big. Plenty of power outlets. TV is internet based so you can login to your Netflix/TV account and watch what you like.Food the usual Courtyard - basic but tasty - burgers etc.All in all a nice stay. Wrong room for me which meant I could hear my neighbours so didn't sleep as soundly as I wanted.MoreShow less</t>
   </si>
   <si>
-    <t>March 2018</t>
-  </si>
-  <si>
     <t>TeamConcord, Manager at Courtyard Houston Intercontinental Airport, responded to this reviewResponded March 5, 2018</t>
   </si>
   <si>
@@ -454,6 +638,48 @@
   </si>
   <si>
     <t>Marriott do a good job with their brand and style of hotel. This Courtyard is no exception.Checkin via mobile app - nice and easy.Room very comfortable and large. Issue with mine was it was an adjoining room - and that means you can hear the neigbours.Bathroom - large clean and tidy - good amenities. Walk in shower (no tub) with just a fixed shower head.Bed comfortable and big. Plenty of power outlets. TV is internet based so you can login to your Netflix/TV account and watch what you like.Food the usual Courtyard - basic but tasty - burgers etc.All in all a nice stay. Wrong room for me which meant I could hear my neighbours so didn't sleep as soundly as I wanted.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12525394-r564264821-Courtyard_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>564264821</t>
+  </si>
+  <si>
+    <t>Nice but some gotchas</t>
+  </si>
+  <si>
+    <t>This is a nice hotel but it's really for the business traveler when your company is paying for everything.  Good: updated/modern, nice large bathroom, close to airport, friendly staff. Bad: No free anything- not even a water bottle in room (for Gold-level Marriott), Bistro breakfast ok but not enough staff- plan for a long wait time. Had to ask them to clean a table (there were at least 3 free but not cleared).  Lots of people waiting to give their order because one (friendly) gal running register but also filling Starbuck coffee drink orders.  My food was ok but my colleague's was awful- everything heavily salted (and I don't mind salt). Toast was bizarre, as if they used salt with some butter. Everything is about $12 on menu. Nice to have small fridge in room but it only stays on for 2 hrs! There is a button inside you have to push to restart the 2 hrs! I had to make up an ice bag to be sure the food was cold through the night or while we were gone during the day. Never seen that before. The only coffee downstairs is $3 (min) Starbucks at the Bistro, but prompt service is not a sure thing.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>This is a nice hotel but it's really for the business traveler when your company is paying for everything.  Good: updated/modern, nice large bathroom, close to airport, friendly staff. Bad: No free anything- not even a water bottle in room (for Gold-level Marriott), Bistro breakfast ok but not enough staff- plan for a long wait time. Had to ask them to clean a table (there were at least 3 free but not cleared).  Lots of people waiting to give their order because one (friendly) gal running register but also filling Starbuck coffee drink orders.  My food was ok but my colleague's was awful- everything heavily salted (and I don't mind salt). Toast was bizarre, as if they used salt with some butter. Everything is about $12 on menu. Nice to have small fridge in room but it only stays on for 2 hrs! There is a button inside you have to push to restart the 2 hrs! I had to make up an ice bag to be sure the food was cold through the night or while we were gone during the day. Never seen that before. The only coffee downstairs is $3 (min) Starbucks at the Bistro, but prompt service is not a sure thing.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12525394-r563561062-Courtyard_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>563561062</t>
+  </si>
+  <si>
+    <t>03/01/2018</t>
+  </si>
+  <si>
+    <t>Comfortable and very helpful staff</t>
+  </si>
+  <si>
+    <t>We stayed here overnight because our in coming flight arrived too late for us to make a connecting international flight.  Unfortunately one of us was coming down with the flu.  The manager was kind enough to allow us a three hour late checkout  to allow more rest before our long evening flight.   We will stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>TeamConcord, Manager at Courtyard Houston Intercontinental Airport, responded to this reviewResponded March 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 2, 2018</t>
+  </si>
+  <si>
+    <t>We stayed here overnight because our in coming flight arrived too late for us to make a connecting international flight.  Unfortunately one of us was coming down with the flu.  The manager was kind enough to allow us a three hour late checkout  to allow more rest before our long evening flight.   We will stay here again.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12525394-r562646481-Courtyard_Houston_Intercontinental_Airport-Houston_Texas.html</t>
@@ -473,9 +699,6 @@
 When I showed the person checking us in (who also happened to be the manager) our booking confirmation indicating we had booked a double he said there was nothing he could do — they had already offered our room to guests who arrived before us and, of course, could not ask them to leave. This manager did not apologize or try to make the hotel’s mistake right. He was so rude to us, basically blamed us for the mix-up, told us...This hotel offers a free airport shuttle, but I’ve never had such a bad experience with this service at a hotel. Guests are expected to call the hotel when they arrive to schedule a pick-up. Once we called, we were told the van would take 20 minutes tops to arrive. We waited for an hour. By the time the shuttle got to our location so many guests were waiting that a couple had to be left behind (after being guaranteed a pick-up over phone and waiting for an hour!)Now on to the hotel itself... I booked a DOUBLE room for me and my traveling companion. When we got to the hotel we were told they were out of doubles and would have to stay in a room with one bed. This was not the room we paid for, and it meant I had to share a bed with the person I was traveling with which was extremely uncomfortable. When I showed the person checking us in (who also happened to be the manager) our booking confirmation indicating we had booked a double he said there was nothing he could do — they had already offered our room to guests who arrived before us and, of course, could not ask them to leave. This manager did not apologize or try to make the hotel’s mistake right. He was so rude to us, basically blamed us for the mix-up, told us he could not offer us a a discount for our single-bed room, and that our only option was to leave the hotel. At the very least he could’ve offered us a meal or SOMETHING. But he did nothing. Instead, he spoke to us in such a demeaning way that the person I was traveling with started to cry out of frustration. To make things worse, this is the SECOND TIME this week that this happened at a Courtyard (see earlier review for Chicago O’Hare location). Unfortunately I had already booked this room before the first incident. When I called Marriott customerservice about the first incident they did nothing except note what happened and told me I’d have to wait 5 business days for them to review the incident. I will not be staying at a Courtyard or any affiliated hotel ever again. If you want to get what you paid for and get treated like a human being you should consider looking elsewhere, too. MoreShow less</t>
   </si>
   <si>
-    <t>February 2018</t>
-  </si>
-  <si>
     <t>TeamConcord, Manager at Courtyard Houston Intercontinental Airport, responded to this reviewResponded February 26, 2018</t>
   </si>
   <si>
@@ -532,6 +755,51 @@
     <t>I don't even know where to begin. Let me first say that I was very skeptical at first staying at an airport hotel but the minute we walked in, I was blown away by the outstanding service and decor of the hotel. After entering our room, we were ready to get to bed. The bed, linens, bathrooms and eating area of the room were so clean! Everything is updated and modern, very spacious with a beautiful view!Our most pleasant experience came with Dawn and Marcus. Both of them went above and beyond for our soccer team, that was here visiting from Atlanta. Two of the days we had early morning games. They BOTH prepared a wonderful menu for our girls and a customized meal plan where we could 'grab n go'. All of the parents, girls and coaches were beyond excited! With all the travel this soccer team does, we have yet to have this experience from any hotel, and it will certainly be difficult to live up to this service we just experienced.Thank you SOOOOO much Dawn and Marcus. We love you guys and when we come to Houston again, we'll be sure to stay at your hotel. You guys are AWESOME and it's because of you two that made this experience the best for our entire team!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12525394-r558701871-Courtyard_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>558701871</t>
+  </si>
+  <si>
+    <t>02/05/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2nd visit - still bad service </t>
+  </si>
+  <si>
+    <t>I love Marriott. But the service here is mediocre. 1st time I was forced out of my room at night after being told it was someone else’s room and had to pack and go downstairs for a new room. I had to follow up 2 months before that was resolved. 2nd time I was given a handicapped room without being asked (no tub and it should’ve given to someone in need)and told it was the last room avail. My coworkers who checked in after me got regular rooms. After being moved and using the towels, two towels had gross hair on it and then one with holes. I give up. Will never stay here again. But still love Marriott. Just not here. MoreShow less</t>
+  </si>
+  <si>
+    <t>TeamConcord, Manager at Courtyard Houston Intercontinental Airport, responded to this reviewResponded February 6, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 6, 2018</t>
+  </si>
+  <si>
+    <t>I love Marriott. But the service here is mediocre. 1st time I was forced out of my room at night after being told it was someone else’s room and had to pack and go downstairs for a new room. I had to follow up 2 months before that was resolved. 2nd time I was given a handicapped room without being asked (no tub and it should’ve given to someone in need)and told it was the last room avail. My coworkers who checked in after me got regular rooms. After being moved and using the towels, two towels had gross hair on it and then one with holes. I give up. Will never stay here again. But still love Marriott. Just not here. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12525394-r558467324-Courtyard_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>558467324</t>
+  </si>
+  <si>
+    <t>02/04/2018</t>
+  </si>
+  <si>
+    <t>Comfortable</t>
+  </si>
+  <si>
+    <t>New hotel, close to the IAH. The airport shuttle arrived immediately after we called &amp; the driver was super nice. Check in/out was quick &amp; staff were very friendly. I booked a king bed room with sofa bed, but received a handicapped room. Not super happy, but it was spacious &amp; clean. We ate at the Bistro (in the lobby) for a late night snack &amp; breakfast. The food &amp; drinks were quite good. Pretty decent place, for an airport hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>New hotel, close to the IAH. The airport shuttle arrived immediately after we called &amp; the driver was super nice. Check in/out was quick &amp; staff were very friendly. I booked a king bed room with sofa bed, but received a handicapped room. Not super happy, but it was spacious &amp; clean. We ate at the Bistro (in the lobby) for a late night snack &amp; breakfast. The food &amp; drinks were quite good. Pretty decent place, for an airport hotel.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12525394-r554039874-Courtyard_Houston_Intercontinental_Airport-Houston_Texas.html</t>
   </si>
   <si>
@@ -547,9 +815,6 @@
     <t>In the past I've stayed next door at the Springhill Suties but I wanted to give this property a try since I got a great rate.  From airport pickup to check-out, I was nothing but impressed with this property..... thanks Lala for the great welcome upon check-in.  A very open and welcoming lobby / conversation area that is adjacent to the bar and restaurant makes you want to hang out instead of trying to find somewhere else to go.The room was modern, clean, quiet, and provided a great night's sleep with a large glass walk-in shower.I did not utilize the fitness room but it was nicely appointed with some weights, benches, and cardio equipment.I'll definitely look here first the next time I fly into IAH.MoreShow less</t>
   </si>
   <si>
-    <t>January 2018</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
@@ -601,6 +866,54 @@
     <t>The hotel is new and close to the airport.  Perfect if you have a layover and want somewhere to spend the night.  There is a free shuttle with friendly drivers who pick you up/drop you off to the airport on request.  The room itself was clean, comfortable and standard.  The design of the hotel could have been improved as all suites appear to be close to elevators which is a weird place to have suites.  However, since the hotel is clean and new, it's a good choice to be in if you want to be close to the airport.  Tip - don't let the proximity of the airport fool you, still plan to leave the hotel early enough to reach there 2 hours in advance.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12525394-r548281042-Courtyard_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>548281042</t>
+  </si>
+  <si>
+    <t>12/20/2017</t>
+  </si>
+  <si>
+    <t>Inept management</t>
+  </si>
+  <si>
+    <t>I specifically picked this property because I had two e-gift cards from Marriott point redemptions.  The operations manager had no idea what to do with them.  He seemingly figured it out, but when I returned home I noticed only ONE of the e-gift cards was showing on my bill.  After I confirmed with the gift card folks that BOTH had been redeemed, I contacted Marriot via Twitter with no response.  Then I called Marriott's customer service phone number and they were utterly unhelpful.  Then my nearly hour long phone call with customer service was dropped during one of the times I was on hold.  Never staying at a Marriott property again.  The property itself was fine, but don't roll the dice on having things go smoothly when there's plenty of other fine properties as well.MoreShow less</t>
+  </si>
+  <si>
+    <t>Dwan L, General Manager at Courtyard Houston Intercontinental Airport, responded to this reviewResponded December 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 22, 2017</t>
+  </si>
+  <si>
+    <t>I specifically picked this property because I had two e-gift cards from Marriott point redemptions.  The operations manager had no idea what to do with them.  He seemingly figured it out, but when I returned home I noticed only ONE of the e-gift cards was showing on my bill.  After I confirmed with the gift card folks that BOTH had been redeemed, I contacted Marriot via Twitter with no response.  Then I called Marriott's customer service phone number and they were utterly unhelpful.  Then my nearly hour long phone call with customer service was dropped during one of the times I was on hold.  Never staying at a Marriott property again.  The property itself was fine, but don't roll the dice on having things go smoothly when there's plenty of other fine properties as well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12525394-r545952884-Courtyard_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>545952884</t>
+  </si>
+  <si>
+    <t>12/08/2017</t>
+  </si>
+  <si>
+    <t>Joan Bass</t>
+  </si>
+  <si>
+    <t>The staff here is exceptionally Excellent.  I was displaced by Hurricane Harvey, and you would never know I was... because they treat me just like a regular guest.  And Chadsity served me with such kindness &amp; efficiency OMG!  I can't say thank you enough Courtyard Houston Intercontinental Airport.  Keep up the Radical Excellent Service ! MoreShow less</t>
+  </si>
+  <si>
+    <t>TeamConcord, General Manager at Courtyard Houston Intercontinental Airport, responded to this reviewResponded December 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 9, 2017</t>
+  </si>
+  <si>
+    <t>The staff here is exceptionally Excellent.  I was displaced by Hurricane Harvey, and you would never know I was... because they treat me just like a regular guest.  And Chadsity served me with such kindness &amp; efficiency OMG!  I can't say thank you enough Courtyard Houston Intercontinental Airport.  Keep up the Radical Excellent Service ! More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12525394-r543589941-Courtyard_Houston_Intercontinental_Airport-Houston_Texas.html</t>
   </si>
   <si>
@@ -614,9 +927,6 @@
   </si>
   <si>
     <t>What a refreshing stay at a new hotel.  The staff and the accommodations were excellent.  The staff in particular were extremely helpful, friendly and went out of their way to assist us with whatever our needs were.  Keep up the great work!</t>
-  </si>
-  <si>
-    <t>November 2017</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12525394-r543158752-Courtyard_Houston_Intercontinental_Airport-Houston_Texas.html</t>
@@ -665,6 +975,24 @@
   </si>
   <si>
     <t>October 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12525394-r530023727-Courtyard_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>530023727</t>
+  </si>
+  <si>
+    <t>10/04/2017</t>
+  </si>
+  <si>
+    <t>Pristine and close to IAH</t>
+  </si>
+  <si>
+    <t>I flew in to Houston for the special Mexican Modernism exhibit at MFAH. I got in late and wanted to stay near the IAH airport and this place was perfect. The ride from the airport is less than 5 minutes. Their shuttle runs every half hour. This hotel opened 2 weeks prior to my stay according to my shuttle driver so as you can imagine this property is pristine. The staff was wonderful and very helpful, all the things you can expect from Marriott hotels.</t>
+  </si>
+  <si>
+    <t>September 2017</t>
   </si>
 </sst>
 </file>
@@ -1199,7 +1527,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -1216,14 +1544,10 @@
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s">
-        <v>54</v>
-      </c>
-      <c r="X2" t="s">
-        <v>55</v>
-      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
@@ -1239,7 +1563,7 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G3" t="s">
         <v>46</v>
@@ -1248,22 +1572,26 @@
         <v>47</v>
       </c>
       <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
         <v>58</v>
       </c>
-      <c r="J3" t="s">
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
         <v>59</v>
       </c>
-      <c r="K3" t="s">
+      <c r="O3" t="s">
         <v>60</v>
       </c>
-      <c r="L3" t="s">
-        <v>61</v>
-      </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s"/>
-      <c r="O3" t="s"/>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
@@ -1313,7 +1641,7 @@
         <v>66</v>
       </c>
       <c r="M4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N4" t="s">
         <v>67</v>
@@ -1321,29 +1649,19 @@
       <c r="O4" t="s">
         <v>68</v>
       </c>
-      <c r="P4" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>4</v>
-      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>5</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="s">
-        <v>69</v>
-      </c>
-      <c r="X4" t="s">
-        <v>70</v>
-      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
@@ -1359,7 +1677,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -1368,16 +1686,16 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" t="s">
         <v>73</v>
-      </c>
-      <c r="J5" t="s">
-        <v>74</v>
-      </c>
-      <c r="K5" t="s">
-        <v>75</v>
-      </c>
-      <c r="L5" t="s">
-        <v>76</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
@@ -1386,7 +1704,7 @@
         <v>67</v>
       </c>
       <c r="O5" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1398,13 +1716,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="X5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="Y5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
@@ -1420,7 +1738,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -1429,45 +1747,35 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" t="s">
         <v>81</v>
       </c>
-      <c r="J6" t="s">
-        <v>82</v>
-      </c>
-      <c r="K6" t="s">
-        <v>83</v>
-      </c>
-      <c r="L6" t="s">
-        <v>84</v>
-      </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
-      <c r="N6" t="s">
-        <v>67</v>
-      </c>
-      <c r="O6" t="s">
-        <v>68</v>
-      </c>
+      <c r="N6" t="s"/>
+      <c r="O6" t="s"/>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
-      <c r="R6" t="n">
-        <v>5</v>
-      </c>
-      <c r="S6" t="n">
-        <v>5</v>
-      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>5</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
@@ -1483,7 +1791,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -1492,47 +1800,49 @@
         <v>47</v>
       </c>
       <c r="I7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L7" t="s">
         <v>86</v>
-      </c>
-      <c r="J7" t="s">
-        <v>87</v>
-      </c>
-      <c r="K7" t="s">
-        <v>88</v>
-      </c>
-      <c r="L7" t="s">
-        <v>89</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="O7" t="s">
         <v>68</v>
       </c>
-      <c r="P7" t="s"/>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
       <c r="Q7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s">
+        <v>88</v>
+      </c>
+      <c r="X7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y7" t="s">
         <v>90</v>
-      </c>
-      <c r="X7" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="8">
@@ -1548,7 +1858,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -1557,34 +1867,32 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
+        <v>92</v>
+      </c>
+      <c r="J8" t="s">
+        <v>93</v>
+      </c>
+      <c r="K8" t="s">
         <v>94</v>
       </c>
-      <c r="J8" t="s">
+      <c r="L8" t="s">
         <v>95</v>
-      </c>
-      <c r="K8" t="s">
-        <v>96</v>
-      </c>
-      <c r="L8" t="s">
-        <v>97</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O8" t="s">
-        <v>68</v>
-      </c>
-      <c r="P8" t="n">
+        <v>53</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="n">
         <v>4</v>
       </c>
-      <c r="Q8" t="n">
-        <v>4</v>
-      </c>
-      <c r="R8" t="s"/>
-      <c r="S8" t="s"/>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
         <v>5</v>
@@ -1593,13 +1901,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
+        <v>97</v>
+      </c>
+      <c r="X8" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y8" t="s">
         <v>99</v>
-      </c>
-      <c r="X8" t="s">
-        <v>100</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="9">
@@ -1615,7 +1923,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -1624,22 +1932,26 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
+        <v>101</v>
+      </c>
+      <c r="J9" t="s">
+        <v>102</v>
+      </c>
+      <c r="K9" t="s">
         <v>103</v>
       </c>
-      <c r="J9" t="s">
+      <c r="L9" t="s">
         <v>104</v>
       </c>
-      <c r="K9" t="s">
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
         <v>105</v>
       </c>
-      <c r="L9" t="s">
-        <v>106</v>
-      </c>
-      <c r="M9" t="n">
-        <v>4</v>
-      </c>
-      <c r="N9" t="s"/>
-      <c r="O9" t="s"/>
+      <c r="O9" t="s">
+        <v>68</v>
+      </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
@@ -1649,14 +1961,10 @@
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s">
-        <v>107</v>
-      </c>
-      <c r="X9" t="s">
-        <v>108</v>
-      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10">
@@ -1672,7 +1980,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -1681,49 +1989,43 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="J10" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="K10" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="L10" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="M10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="O10" t="s">
         <v>68</v>
       </c>
-      <c r="P10" t="n">
-        <v>5</v>
-      </c>
+      <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
-      <c r="S10" t="n">
-        <v>5</v>
-      </c>
+      <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>5</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="X10" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="Y10" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11">
@@ -1739,7 +2041,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -1748,33 +2050,33 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="J11" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="K11" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="L11" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>124</v>
+        <v>87</v>
       </c>
       <c r="O11" t="s">
         <v>68</v>
       </c>
-      <c r="P11" t="n">
-        <v>3</v>
-      </c>
+      <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
-      <c r="R11" t="s"/>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
       <c r="S11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
@@ -1783,14 +2085,10 @@
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s">
-        <v>125</v>
-      </c>
-      <c r="X11" t="s">
-        <v>126</v>
-      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12">
@@ -1806,7 +2104,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -1815,49 +2113,47 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="J12" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="K12" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="L12" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>124</v>
+        <v>87</v>
       </c>
       <c r="O12" t="s">
-        <v>133</v>
-      </c>
-      <c r="P12" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q12" t="s"/>
-      <c r="R12" t="n">
-        <v>5</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>3</v>
+      </c>
+      <c r="R12" t="s"/>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="X12" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="Y12" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13">
@@ -1873,7 +2169,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -1882,49 +2178,43 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="J13" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="K13" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="L13" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="M13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>142</v>
+        <v>96</v>
       </c>
       <c r="O13" t="s">
         <v>68</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
-      <c r="R13" t="n">
-        <v>5</v>
-      </c>
-      <c r="S13" t="n">
-        <v>5</v>
-      </c>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>5</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="X13" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="Y13" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14">
@@ -1940,7 +2230,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -1949,25 +2239,25 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="J14" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="K14" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="L14" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>151</v>
+        <v>87</v>
       </c>
       <c r="O14" t="s">
-        <v>133</v>
+        <v>68</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -1978,14 +2268,10 @@
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s">
-        <v>152</v>
-      </c>
-      <c r="X14" t="s">
-        <v>153</v>
-      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15">
@@ -2001,7 +2287,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -2010,43 +2296,49 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="J15" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="K15" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="L15" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>151</v>
+        <v>96</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
-      </c>
-      <c r="P15" t="s"/>
-      <c r="Q15" t="s"/>
+        <v>68</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>4</v>
+      </c>
       <c r="R15" t="s"/>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="X15" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="Y15" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16">
@@ -2062,7 +2354,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2071,26 +2363,22 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="J16" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="K16" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="L16" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="M16" t="n">
-        <v>5</v>
-      </c>
-      <c r="N16" t="s">
-        <v>151</v>
-      </c>
-      <c r="O16" t="s">
-        <v>168</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N16" t="s"/>
+      <c r="O16" t="s"/>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
       <c r="R16" t="s"/>
@@ -2100,10 +2388,14 @@
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s"/>
-      <c r="X16" t="s"/>
+      <c r="W16" t="s">
+        <v>153</v>
+      </c>
+      <c r="X16" t="s">
+        <v>154</v>
+      </c>
       <c r="Y16" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17">
@@ -2119,7 +2411,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2128,28 +2420,28 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="J17" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="K17" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="L17" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="O17" t="s">
-        <v>176</v>
+        <v>68</v>
       </c>
       <c r="P17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q17" t="s"/>
       <c r="R17" t="s"/>
@@ -2158,19 +2450,19 @@
       </c>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="X17" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="Y17" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18">
@@ -2186,7 +2478,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2195,39 +2487,49 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="J18" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="K18" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="L18" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="M18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N18" t="s">
-        <v>175</v>
+        <v>96</v>
       </c>
       <c r="O18" t="s">
-        <v>133</v>
+        <v>68</v>
       </c>
       <c r="P18" t="s"/>
-      <c r="Q18" t="s"/>
+      <c r="Q18" t="n">
+        <v>4</v>
+      </c>
       <c r="R18" t="s"/>
-      <c r="S18" t="s"/>
+      <c r="S18" t="n">
+        <v>4</v>
+      </c>
       <c r="T18" t="s"/>
-      <c r="U18" t="s"/>
+      <c r="U18" t="n">
+        <v>3</v>
+      </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s"/>
-      <c r="X18" t="s"/>
+      <c r="W18" t="s">
+        <v>170</v>
+      </c>
+      <c r="X18" t="s">
+        <v>171</v>
+      </c>
       <c r="Y18" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19">
@@ -2243,7 +2545,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -2252,27 +2554,29 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="J19" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="K19" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="L19" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="M19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>115</v>
+        <v>178</v>
       </c>
       <c r="O19" t="s">
-        <v>176</v>
-      </c>
-      <c r="P19" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4</v>
+      </c>
       <c r="Q19" t="s"/>
       <c r="R19" t="n">
         <v>5</v>
@@ -2280,19 +2584,15 @@
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s">
-        <v>190</v>
-      </c>
-      <c r="X19" t="s">
-        <v>191</v>
-      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20">
@@ -2308,7 +2608,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -2317,31 +2617,33 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="J20" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="K20" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="L20" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="O20" t="s">
         <v>68</v>
       </c>
-      <c r="P20" t="s"/>
+      <c r="P20" t="n">
+        <v>3</v>
+      </c>
       <c r="Q20" t="s"/>
       <c r="R20" t="s"/>
       <c r="S20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
@@ -2350,10 +2652,14 @@
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="s"/>
-      <c r="X20" t="s"/>
+      <c r="W20" t="s">
+        <v>185</v>
+      </c>
+      <c r="X20" t="s">
+        <v>186</v>
+      </c>
       <c r="Y20" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21">
@@ -2369,7 +2675,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -2378,25 +2684,25 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="J21" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="K21" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="L21" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="M21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="O21" t="s">
-        <v>176</v>
+        <v>60</v>
       </c>
       <c r="P21" t="n">
         <v>5</v>
@@ -2414,13 +2720,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="X21" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="Y21" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22">
@@ -2436,7 +2742,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -2445,39 +2751,1043 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="J22" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="K22" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="L22" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>212</v>
+        <v>59</v>
       </c>
       <c r="O22" t="s">
         <v>68</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
-      <c r="R22" t="s"/>
-      <c r="S22" t="s"/>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
       <c r="T22" t="s"/>
-      <c r="U22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s"/>
-      <c r="X22" t="s"/>
+      <c r="W22" t="s">
+        <v>201</v>
+      </c>
+      <c r="X22" t="s">
+        <v>202</v>
+      </c>
       <c r="Y22" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>65726</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>204</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>205</v>
+      </c>
+      <c r="J23" t="s">
+        <v>198</v>
+      </c>
+      <c r="K23" t="s">
+        <v>206</v>
+      </c>
+      <c r="L23" t="s">
+        <v>207</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="s">
+        <v>208</v>
+      </c>
+      <c r="O23" t="s">
+        <v>60</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="n">
+        <v>3</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>2</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>201</v>
+      </c>
+      <c r="X23" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>65726</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>210</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
         <v>211</v>
+      </c>
+      <c r="J24" t="s">
+        <v>212</v>
+      </c>
+      <c r="K24" t="s">
+        <v>213</v>
+      </c>
+      <c r="L24" t="s">
+        <v>214</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>59</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>215</v>
+      </c>
+      <c r="X24" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>65726</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>218</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>219</v>
+      </c>
+      <c r="J25" t="s">
+        <v>220</v>
+      </c>
+      <c r="K25" t="s">
+        <v>221</v>
+      </c>
+      <c r="L25" t="s">
+        <v>222</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>208</v>
+      </c>
+      <c r="O25" t="s">
+        <v>60</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>223</v>
+      </c>
+      <c r="X25" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>65726</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>226</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>227</v>
+      </c>
+      <c r="J26" t="s">
+        <v>228</v>
+      </c>
+      <c r="K26" t="s">
+        <v>229</v>
+      </c>
+      <c r="L26" t="s">
+        <v>230</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>208</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>231</v>
+      </c>
+      <c r="X26" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>65726</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>234</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>235</v>
+      </c>
+      <c r="J27" t="s">
+        <v>236</v>
+      </c>
+      <c r="K27" t="s">
+        <v>237</v>
+      </c>
+      <c r="L27" t="s">
+        <v>238</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>208</v>
+      </c>
+      <c r="O27" t="s">
+        <v>239</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>65726</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>241</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>242</v>
+      </c>
+      <c r="J28" t="s">
+        <v>243</v>
+      </c>
+      <c r="K28" t="s">
+        <v>244</v>
+      </c>
+      <c r="L28" t="s">
+        <v>245</v>
+      </c>
+      <c r="M28" t="n">
+        <v>2</v>
+      </c>
+      <c r="N28" t="s">
+        <v>208</v>
+      </c>
+      <c r="O28" t="s">
+        <v>68</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>246</v>
+      </c>
+      <c r="X28" t="s">
+        <v>247</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>65726</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>249</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>250</v>
+      </c>
+      <c r="J29" t="s">
+        <v>251</v>
+      </c>
+      <c r="K29" t="s">
+        <v>252</v>
+      </c>
+      <c r="L29" t="s">
+        <v>253</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>254</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="n">
+        <v>4</v>
+      </c>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>246</v>
+      </c>
+      <c r="X29" t="s">
+        <v>247</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>65726</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>256</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>257</v>
+      </c>
+      <c r="J30" t="s">
+        <v>258</v>
+      </c>
+      <c r="K30" t="s">
+        <v>259</v>
+      </c>
+      <c r="L30" t="s">
+        <v>260</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>254</v>
+      </c>
+      <c r="O30" t="s">
+        <v>261</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>262</v>
+      </c>
+      <c r="X30" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>65726</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>265</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>266</v>
+      </c>
+      <c r="J31" t="s">
+        <v>267</v>
+      </c>
+      <c r="K31" t="s">
+        <v>268</v>
+      </c>
+      <c r="L31" t="s">
+        <v>269</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>254</v>
+      </c>
+      <c r="O31" t="s">
+        <v>60</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>65726</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>270</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>271</v>
+      </c>
+      <c r="J32" t="s">
+        <v>272</v>
+      </c>
+      <c r="K32" t="s">
+        <v>273</v>
+      </c>
+      <c r="L32" t="s">
+        <v>274</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>161</v>
+      </c>
+      <c r="O32" t="s">
+        <v>261</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>275</v>
+      </c>
+      <c r="X32" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>65726</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>278</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>279</v>
+      </c>
+      <c r="J33" t="s">
+        <v>280</v>
+      </c>
+      <c r="K33" t="s">
+        <v>281</v>
+      </c>
+      <c r="L33" t="s">
+        <v>282</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
+        <v>105</v>
+      </c>
+      <c r="O33" t="s">
+        <v>261</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>1</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>283</v>
+      </c>
+      <c r="X33" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>65726</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>286</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>287</v>
+      </c>
+      <c r="J34" t="s">
+        <v>288</v>
+      </c>
+      <c r="K34" t="s">
+        <v>289</v>
+      </c>
+      <c r="L34" t="s">
+        <v>290</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s"/>
+      <c r="O34" t="s"/>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>291</v>
+      </c>
+      <c r="X34" t="s">
+        <v>292</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>65726</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>294</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>295</v>
+      </c>
+      <c r="J35" t="s">
+        <v>296</v>
+      </c>
+      <c r="K35" t="s">
+        <v>297</v>
+      </c>
+      <c r="L35" t="s">
+        <v>298</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>105</v>
+      </c>
+      <c r="O35" t="s">
+        <v>68</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>65726</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>299</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>300</v>
+      </c>
+      <c r="J36" t="s">
+        <v>301</v>
+      </c>
+      <c r="K36" t="s">
+        <v>302</v>
+      </c>
+      <c r="L36" t="s">
+        <v>303</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>105</v>
+      </c>
+      <c r="O36" t="s">
+        <v>261</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>304</v>
+      </c>
+      <c r="X36" t="s">
+        <v>305</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>65726</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>307</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>308</v>
+      </c>
+      <c r="J37" t="s">
+        <v>309</v>
+      </c>
+      <c r="K37" t="s">
+        <v>310</v>
+      </c>
+      <c r="L37" t="s">
+        <v>311</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>312</v>
+      </c>
+      <c r="O37" t="s">
+        <v>68</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>65726</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>313</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>314</v>
+      </c>
+      <c r="J38" t="s">
+        <v>315</v>
+      </c>
+      <c r="K38" t="s">
+        <v>316</v>
+      </c>
+      <c r="L38" t="s">
+        <v>317</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>318</v>
+      </c>
+      <c r="O38" t="s">
+        <v>261</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>317</v>
       </c>
     </row>
   </sheetData>
